--- a/Reports/ZacksRank/TanzyWatch2.xlsx
+++ b/Reports/ZacksRank/TanzyWatch2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3375" uniqueCount="409">
   <si>
     <t>Jun_04</t>
   </si>
@@ -1007,6 +1007,246 @@
   </si>
   <si>
     <t>Hold       ($58.68)</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>Hold       ($41.86)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.63)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.18)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($17.89)</t>
+  </si>
+  <si>
+    <t>Sell       ($14.30)</t>
+  </si>
+  <si>
+    <t>StrongSell ($9.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.68)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($18.03)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.97)</t>
+  </si>
+  <si>
+    <t>UN         ($16.85)</t>
+  </si>
+  <si>
+    <t>Buy        ($58.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($40.93)</t>
+  </si>
+  <si>
+    <t>Buy        ($42.97)</t>
+  </si>
+  <si>
+    <t>Hold       ($85.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($270.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($155.02)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($362.66)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($115.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($99.18)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.93)</t>
+  </si>
+  <si>
+    <t>StrongSell ($41.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($85.14)</t>
+  </si>
+  <si>
+    <t>Hold       ($524.51)</t>
+  </si>
+  <si>
+    <t>Hold       ($99.59)</t>
+  </si>
+  <si>
+    <t>Sell       ($11.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($310.11)</t>
+  </si>
+  <si>
+    <t>Buy        ($49.79)</t>
+  </si>
+  <si>
+    <t>Buy        ($264.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($33.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.57)</t>
+  </si>
+  <si>
+    <t>Buy        ($39.60)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($150.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.67)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.70)</t>
+  </si>
+  <si>
+    <t>StrongSell ($21.26)</t>
+  </si>
+  <si>
+    <t>Hold       ($60.01)</t>
+  </si>
+  <si>
+    <t>Jun_17</t>
+  </si>
+  <si>
+    <t>Jun_18</t>
+  </si>
+  <si>
+    <t>Hold       ($44.66)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.58)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.53)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.28)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($17.63)</t>
+  </si>
+  <si>
+    <t>Sell       ($14.54)</t>
+  </si>
+  <si>
+    <t>StrongSell ($9.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($18.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.00)</t>
+  </si>
+  <si>
+    <t>UN         ($16.30)</t>
+  </si>
+  <si>
+    <t>Buy        ($59.32)</t>
+  </si>
+  <si>
+    <t>Buy        ($43.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($85.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($264.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($151.69)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($370.10)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($114.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($98.62)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.21)</t>
+  </si>
+  <si>
+    <t>StrongSell ($41.33)</t>
+  </si>
+  <si>
+    <t>Hold       ($84.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($527.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.23)</t>
+  </si>
+  <si>
+    <t>Sell       ($11.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($309.52)</t>
+  </si>
+  <si>
+    <t>Buy        ($49.27)</t>
+  </si>
+  <si>
+    <t>Buy        ($263.67)</t>
+  </si>
+  <si>
+    <t>Hold       ($32.58)</t>
+  </si>
+  <si>
+    <t>Buy        ($42.00)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($148.68)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.62)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($37.78)</t>
+  </si>
+  <si>
+    <t>StrongSell ($21.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($60.36)</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,6 +1300,26 @@
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1073,7 +1333,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -1083,7 +1343,9 @@
     <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1415,33 +1677,45 @@
     <col min="7" max="7" customWidth="true" width="17.33203125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="17.33203125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="10" max="14" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="13" max="14" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="4.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1450,27 +1724,36 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1479,27 +1762,36 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>120</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>81</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1508,27 +1800,36 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1537,27 +1838,36 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="L5" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1566,27 +1876,36 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1595,27 +1914,36 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1624,27 +1952,36 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="L8" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1653,27 +1990,36 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="L9" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1682,15 +2028,24 @@
         <v>197</v>
       </c>
       <c r="B10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>217</v>
       </c>
     </row>
@@ -1699,15 +2054,24 @@
         <v>198</v>
       </c>
       <c r="B11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>218</v>
       </c>
     </row>
@@ -1716,27 +2080,36 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="J12" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="K12" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="L12" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1745,27 +2118,36 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="J13" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="K13" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="L13" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1774,27 +2156,36 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="I14" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="J14" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="K14" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="L14" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1803,27 +2194,36 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="I15" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="J15" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="K15" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="L15" s="0" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1832,27 +2232,36 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="H16" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="I16" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="J16" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="K16" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="L16" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1861,27 +2270,36 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="H17" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="I17" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="J17" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="L17" s="0" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1890,27 +2308,36 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
+        <v>386</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="H18" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="I18" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="J18" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="K18" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="L18" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1918,28 +2345,37 @@
       <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" t="s">
+        <v>387</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="H19" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="I19" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="J19" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="L19" s="0" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1948,27 +2384,36 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
+        <v>388</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="I20" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="J20" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="K20" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="L20" s="0" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1977,27 +2422,36 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
+        <v>389</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="H21" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="I21" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="J21" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="K21" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="L21" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2006,27 +2460,36 @@
         <v>37</v>
       </c>
       <c r="B22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="I22" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="J22" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="K22" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="L22" s="0" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2035,27 +2498,36 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="H23" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="I23" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="J23" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="K23" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="L23" s="0" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2064,27 +2536,36 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="H24" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="I24" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="J24" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="K24" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="L24" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2093,27 +2574,36 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="F25" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="H25" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="I25" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="J25" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="L25" s="0" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2122,27 +2612,36 @@
         <v>45</v>
       </c>
       <c r="B26" t="s">
+        <v>394</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="F26" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="H26" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="I26" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="J26" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="K26" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="L26" s="0" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2151,27 +2650,36 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
+        <v>395</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="F27" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="G27" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="H27" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="I27" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="J27" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="K27" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="L27" s="0" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2180,27 +2688,36 @@
         <v>49</v>
       </c>
       <c r="B28" t="s">
+        <v>396</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="F28" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="G28" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>104</v>
       </c>
       <c r="I28" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2209,27 +2726,36 @@
         <v>51</v>
       </c>
       <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="F29" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="G29" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="H29" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="I29" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="J29" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="K29" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="L29" s="0" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2238,27 +2764,36 @@
         <v>53</v>
       </c>
       <c r="B30" t="s">
+        <v>397</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="F30" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="G30" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="H30" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="I30" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="J30" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="K30" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="L30" s="0" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2267,27 +2802,36 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
+        <v>398</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="F31" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="G31" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="H31" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="I31" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="J31" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="K31" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="L31" s="0" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2296,27 +2840,36 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="F32" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="G32" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="H32" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="I32" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="J32" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="K32" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="L32" s="0" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2325,27 +2878,36 @@
         <v>59</v>
       </c>
       <c r="B33" t="s">
+        <v>400</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="F33" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="G33" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="H33" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="I33" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="J33" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="K33" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="L33" s="0" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2354,27 +2916,36 @@
         <v>61</v>
       </c>
       <c r="B34" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="F34" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="G34" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="H34" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="I34" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="J34" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="K34" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="L34" s="0" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2386,24 +2957,33 @@
         <v>321</v>
       </c>
       <c r="C35" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="G35" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="H35" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="I35" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="J35" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="K35" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="L35" s="0" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2412,27 +2992,36 @@
         <v>65</v>
       </c>
       <c r="B36" t="s">
+        <v>402</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="F36" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="G36" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="H36" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="I36" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="J36" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="K36" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="I36" s="0" t="s">
+      <c r="L36" s="0" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2441,27 +3030,36 @@
         <v>67</v>
       </c>
       <c r="B37" t="s">
+        <v>403</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="F37" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="G37" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="H37" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="I37" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="J37" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="K37" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="L37" s="0" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2470,27 +3068,36 @@
         <v>69</v>
       </c>
       <c r="B38" t="s">
+        <v>364</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="F38" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="G38" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="H38" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="I38" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="J38" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="K38" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="I38" s="0" t="s">
+      <c r="L38" s="0" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2499,27 +3106,36 @@
         <v>71</v>
       </c>
       <c r="B39" t="s">
+        <v>404</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="F39" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="G39" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="H39" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="I39" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="J39" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="K39" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="I39" s="0" t="s">
+      <c r="L39" s="0" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2528,27 +3144,36 @@
         <v>73</v>
       </c>
       <c r="B40" t="s">
+        <v>405</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="E40" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="F40" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="G40" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="H40" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="I40" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="J40" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="K40" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="I40" s="0" t="s">
+      <c r="L40" s="0" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2557,27 +3182,36 @@
         <v>75</v>
       </c>
       <c r="B41" t="s">
+        <v>406</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="F41" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="G41" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="H41" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="I41" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="J41" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="K41" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="I41" s="0" t="s">
+      <c r="L41" s="0" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2586,27 +3220,36 @@
         <v>77</v>
       </c>
       <c r="B42" t="s">
+        <v>407</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="F42" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="G42" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="H42" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="I42" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="J42" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="K42" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="I42" s="0" t="s">
+      <c r="L42" s="0" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2615,37 +3258,37 @@
         <v>209</v>
       </c>
       <c r="B43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="F43" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="G43" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="H43" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="I43" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="J43" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="K43" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="L43" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="J43" t="s">
-        <v>203</v>
-      </c>
-      <c r="K43" t="s">
-        <v>202</v>
-      </c>
-      <c r="L43" t="s">
-        <v>201</v>
       </c>
       <c r="M43" t="s">
         <v>200</v>

--- a/Reports/ZacksRank/TanzyWatch2.xlsx
+++ b/Reports/ZacksRank/TanzyWatch2.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/ZacksRank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7070BB75-42C4-2343-838B-2C9E7C0D9127}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{7070BB75-42C4-2343-838B-2C9E7C0D9127}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="19560" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="2018" sheetId="1" r:id="rId1"/>
+    <sheet name="2018" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3701" uniqueCount="729">
   <si>
     <t>Jun_04</t>
   </si>
@@ -1937,12 +1937,283 @@
   </si>
   <si>
     <t>RRC</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Jun_26</t>
+  </si>
+  <si>
+    <t>Hold       ($40.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($18.76)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($16.58)</t>
+  </si>
+  <si>
+    <t>Sell       ($14.04)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.84)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($18.75)</t>
+  </si>
+  <si>
+    <t>StrongSell ($4.73)</t>
+  </si>
+  <si>
+    <t>UN         ($17.65)</t>
+  </si>
+  <si>
+    <t>Buy        ($56.53)</t>
+  </si>
+  <si>
+    <t>Hold       ($39.68)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($40.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($82.32)</t>
+  </si>
+  <si>
+    <t>Hold       ($251.54)</t>
+  </si>
+  <si>
+    <t>Buy        ($151.50)</t>
+  </si>
+  <si>
+    <t>Buy        ($352.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($111.51)</t>
+  </si>
+  <si>
+    <t>Hold       ($97.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($14.97)</t>
+  </si>
+  <si>
+    <t>StrongSell ($42.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($85.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($510.82)</t>
+  </si>
+  <si>
+    <t>Hold       ($92.12)</t>
+  </si>
+  <si>
+    <t>Sell       ($12.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($299.05)</t>
+  </si>
+  <si>
+    <t>Buy        ($44.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($236.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($32.78)</t>
+  </si>
+  <si>
+    <t>Buy        ($32.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($135.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.11)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.86)</t>
+  </si>
+  <si>
+    <t>StrongSell ($20.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($59.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($37.86)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($210.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.52)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.55)</t>
+  </si>
+  <si>
+    <t>Jun_27</t>
+  </si>
+  <si>
+    <t>Hold       ($37.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($18.53)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.94)</t>
+  </si>
+  <si>
+    <t>Sell       ($13.40)</t>
+  </si>
+  <si>
+    <t>StrongSell ($9.24)</t>
+  </si>
+  <si>
+    <t>Sell       ($16.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($18.66)</t>
+  </si>
+  <si>
+    <t>StrongSell ($4.56)</t>
+  </si>
+  <si>
+    <t>UN         ($17.00)</t>
+  </si>
+  <si>
+    <t>Buy        ($55.98)</t>
+  </si>
+  <si>
+    <t>Buy        ($39.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($80.67)</t>
+  </si>
+  <si>
+    <t>Hold       ($247.11)</t>
+  </si>
+  <si>
+    <t>Hold       ($147.50)</t>
+  </si>
+  <si>
+    <t>Buy        ($342.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($108.78)</t>
+  </si>
+  <si>
+    <t>UN         (0)</t>
+  </si>
+  <si>
+    <t>Hold       ($14.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($84.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($503.56)</t>
+  </si>
+  <si>
+    <t>Buy        ($91.51)</t>
+  </si>
+  <si>
+    <t>Sell       ($11.56)</t>
+  </si>
+  <si>
+    <t>Hold       ($294.77)</t>
+  </si>
+  <si>
+    <t>Buy        ($42.82)</t>
+  </si>
+  <si>
+    <t>Hold       ($229.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($32.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.14)</t>
+  </si>
+  <si>
+    <t>Buy        ($31.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($134.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.17)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.17)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.01)</t>
+  </si>
+  <si>
+    <t>StrongSell ($20.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($59.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($37.88)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($210.03)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.65)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1952,7 +2223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2024,6 +2295,56 @@
         <fgColor indexed="45"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2035,169 +2356,265 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="276">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2220,10 +2637,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2240,10 +2657,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2278,7 +2695,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2330,7 +2747,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2441,21 +2858,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2472,7 +2889,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2524,14 +2941,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
@@ -2540,54 +2957,72 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="15" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="17.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2595,46 +3030,52 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="228" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2" s="180" t="s">
+        <v>641</v>
+      </c>
+      <c r="D2" s="138" t="s">
         <v>487</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="E2" s="96" t="s">
         <v>446</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="F2" s="54" t="s">
         <v>406</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2642,46 +3083,52 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="229" t="s">
+        <v>687</v>
+      </c>
+      <c r="C3" s="181" t="s">
+        <v>642</v>
+      </c>
+      <c r="D3" s="139" t="s">
         <v>488</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="E3" s="97" t="s">
         <v>447</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="F3" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2689,46 +3136,52 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="230" t="s">
+        <v>688</v>
+      </c>
+      <c r="C4" s="182" t="s">
+        <v>643</v>
+      </c>
+      <c r="D4" s="140" t="s">
         <v>489</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="E4" s="98" t="s">
         <v>448</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="F4" s="56" t="s">
         <v>407</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2736,46 +3189,52 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="231" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="183" t="s">
+        <v>644</v>
+      </c>
+      <c r="D5" s="141" t="s">
         <v>490</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="E5" s="99" t="s">
         <v>449</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="F5" s="57" t="s">
         <v>368</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2783,46 +3242,52 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="232" t="s">
+        <v>689</v>
+      </c>
+      <c r="C6" s="184" t="s">
+        <v>645</v>
+      </c>
+      <c r="D6" s="142" t="s">
         <v>491</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="E6" s="100" t="s">
         <v>450</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="F6" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2830,46 +3295,52 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="233" t="s">
+        <v>690</v>
+      </c>
+      <c r="C7" s="185" t="s">
+        <v>646</v>
+      </c>
+      <c r="D7" s="143" t="s">
         <v>492</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="E7" s="101" t="s">
         <v>451</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="F7" s="59" t="s">
         <v>409</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2877,46 +3348,52 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="234" t="s">
+        <v>691</v>
+      </c>
+      <c r="C8" s="186" t="s">
+        <v>647</v>
+      </c>
+      <c r="D8" s="144" t="s">
         <v>493</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="E8" s="102" t="s">
         <v>452</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="F8" s="60" t="s">
         <v>410</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="G8" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2924,46 +3401,52 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="235" t="s">
+        <v>692</v>
+      </c>
+      <c r="C9" s="187" t="s">
+        <v>648</v>
+      </c>
+      <c r="D9" s="145" t="s">
         <v>494</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="E9" s="103" t="s">
         <v>453</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="F9" s="61" t="s">
         <v>411</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="O9" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2971,34 +3454,40 @@
       <c r="A10" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="236" t="s">
+        <v>693</v>
+      </c>
+      <c r="C10" s="188" t="s">
+        <v>373</v>
+      </c>
+      <c r="D10" s="146" t="s">
         <v>454</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="E10" s="104" t="s">
         <v>454</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="F10" s="62" t="s">
         <v>412</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" s="0" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3006,34 +3495,40 @@
       <c r="A11" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="237" t="s">
+        <v>694</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>649</v>
+      </c>
+      <c r="D11" s="147" t="s">
         <v>495</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="E11" s="105" t="s">
         <v>455</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="F11" s="63" t="s">
         <v>413</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="G11" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" s="0" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3041,46 +3536,52 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="238" t="s">
+        <v>695</v>
+      </c>
+      <c r="C12" s="190" t="s">
+        <v>650</v>
+      </c>
+      <c r="D12" s="148" t="s">
         <v>496</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="E12" s="106" t="s">
         <v>456</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="F12" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="G12" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3088,46 +3589,52 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="239" t="s">
+        <v>696</v>
+      </c>
+      <c r="C13" s="191" t="s">
+        <v>651</v>
+      </c>
+      <c r="D13" s="149" t="s">
         <v>497</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="E13" s="107" t="s">
         <v>457</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="F13" s="65" t="s">
         <v>415</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="G13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3135,46 +3642,52 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="240" t="s">
+        <v>697</v>
+      </c>
+      <c r="C14" s="192" t="s">
+        <v>652</v>
+      </c>
+      <c r="D14" s="150" t="s">
         <v>498</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="E14" s="108" t="s">
         <v>458</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="F14" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="G14" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3182,46 +3695,52 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="241" t="s">
+        <v>698</v>
+      </c>
+      <c r="C15" s="193" t="s">
+        <v>653</v>
+      </c>
+      <c r="D15" s="151" t="s">
         <v>499</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="E15" s="109" t="s">
         <v>459</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="F15" s="67" t="s">
         <v>417</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="G15" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" s="0" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3229,46 +3748,52 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="242" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" s="194" t="s">
+        <v>654</v>
+      </c>
+      <c r="D16" s="152" t="s">
         <v>281</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="E16" s="110" t="s">
         <v>460</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="F16" s="68" t="s">
         <v>418</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="G16" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="M16" t="s">
+      <c r="O16" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3276,46 +3801,52 @@
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="243" t="s">
+        <v>699</v>
+      </c>
+      <c r="C17" s="195" t="s">
+        <v>655</v>
+      </c>
+      <c r="D17" s="153" t="s">
         <v>500</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="E17" s="111" t="s">
         <v>461</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="F17" s="69" t="s">
         <v>419</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="G17" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" s="0" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3323,46 +3854,52 @@
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="154" t="s">
+      <c r="B18" s="244" t="s">
+        <v>700</v>
+      </c>
+      <c r="C18" s="196" t="s">
+        <v>656</v>
+      </c>
+      <c r="D18" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="E18" s="112" t="s">
         <v>462</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="F18" s="70" t="s">
         <v>420</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="G18" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q18" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3370,46 +3907,52 @@
       <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="245" t="s">
+        <v>701</v>
+      </c>
+      <c r="C19" s="197" t="s">
+        <v>657</v>
+      </c>
+      <c r="D19" s="155" t="s">
         <v>502</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="E19" s="113" t="s">
         <v>463</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="F19" s="71" t="s">
         <v>421</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="G19" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="M19" t="s">
+      <c r="O19" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" s="0" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3417,46 +3960,52 @@
       <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="156" t="s">
+      <c r="B20" s="246" t="s">
+        <v>702</v>
+      </c>
+      <c r="C20" s="198" t="s">
+        <v>658</v>
+      </c>
+      <c r="D20" s="156" t="s">
         <v>503</v>
       </c>
-      <c r="C20" s="114" t="s">
+      <c r="E20" s="114" t="s">
         <v>464</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="F20" s="72" t="s">
         <v>422</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="G20" s="30" t="s">
         <v>382</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O20" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" s="0" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3464,46 +4013,52 @@
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="157" t="s">
+      <c r="B21" s="247" t="s">
+        <v>703</v>
+      </c>
+      <c r="C21" s="199" t="s">
+        <v>659</v>
+      </c>
+      <c r="D21" s="157" t="s">
         <v>504</v>
       </c>
-      <c r="C21" s="115" t="s">
+      <c r="E21" s="115" t="s">
         <v>465</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="F21" s="73" t="s">
         <v>423</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="G21" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O21" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P21" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q21" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3511,46 +4066,52 @@
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="248" t="s">
+        <v>704</v>
+      </c>
+      <c r="C22" s="200" t="s">
+        <v>660</v>
+      </c>
+      <c r="D22" s="158" t="s">
         <v>505</v>
       </c>
-      <c r="C22" s="116" t="s">
+      <c r="E22" s="116" t="s">
         <v>466</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="F22" s="74" t="s">
         <v>424</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="G22" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="M22" t="s">
+      <c r="O22" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" s="0" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3558,46 +4119,52 @@
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="159" t="s">
+      <c r="B23" s="249" t="s">
+        <v>705</v>
+      </c>
+      <c r="C23" s="201" t="s">
+        <v>661</v>
+      </c>
+      <c r="D23" s="159" t="s">
         <v>506</v>
       </c>
-      <c r="C23" s="117" t="s">
+      <c r="E23" s="117" t="s">
         <v>467</v>
       </c>
-      <c r="D23" s="75" t="s">
+      <c r="F23" s="75" t="s">
         <v>425</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="G23" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" s="0" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3605,46 +4172,52 @@
       <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="160" t="s">
+      <c r="B24" s="250" t="s">
+        <v>706</v>
+      </c>
+      <c r="C24" s="202" t="s">
+        <v>662</v>
+      </c>
+      <c r="D24" s="160" t="s">
         <v>507</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="E24" s="118" t="s">
         <v>468</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="F24" s="76" t="s">
         <v>426</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="G24" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O24" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3652,46 +4225,52 @@
       <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="161" t="s">
+      <c r="B25" s="251" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" s="203" t="s">
+        <v>663</v>
+      </c>
+      <c r="D25" s="161" t="s">
         <v>508</v>
       </c>
-      <c r="C25" s="119" t="s">
+      <c r="E25" s="119" t="s">
         <v>469</v>
       </c>
-      <c r="D25" s="77" t="s">
+      <c r="F25" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="G25" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="P25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" s="0" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3699,46 +4278,52 @@
       <c r="A26" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="162" t="s">
+      <c r="B26" s="252" t="s">
+        <v>707</v>
+      </c>
+      <c r="C26" s="204" t="s">
+        <v>664</v>
+      </c>
+      <c r="D26" s="162" t="s">
         <v>509</v>
       </c>
-      <c r="C26" s="120" t="s">
+      <c r="E26" s="120" t="s">
         <v>470</v>
       </c>
-      <c r="D26" s="78" t="s">
+      <c r="F26" s="78" t="s">
         <v>428</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="G26" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="L26" t="s">
+      <c r="N26" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="M26" t="s">
+      <c r="O26" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" s="0" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3746,46 +4331,52 @@
       <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="163" t="s">
+      <c r="B27" s="253" t="s">
+        <v>708</v>
+      </c>
+      <c r="C27" s="205" t="s">
+        <v>665</v>
+      </c>
+      <c r="D27" s="163" t="s">
         <v>510</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="E27" s="121" t="s">
         <v>471</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="F27" s="79" t="s">
         <v>429</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="G27" s="37" t="s">
         <v>389</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N27" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="N27" t="s">
+      <c r="P27" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" s="0" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3793,46 +4384,52 @@
       <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="164" t="s">
+      <c r="B28" s="254" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="206" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="164" t="s">
         <v>511</v>
       </c>
-      <c r="C28" s="122" t="s">
+      <c r="E28" s="122" t="s">
         <v>415</v>
       </c>
-      <c r="D28" s="80" t="s">
+      <c r="F28" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="G28" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="M28" t="s">
+      <c r="O28" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="N28" t="s">
+      <c r="P28" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="O28" t="s">
+      <c r="Q28" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3840,46 +4437,52 @@
       <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="165" t="s">
+      <c r="B29" s="255" t="s">
+        <v>709</v>
+      </c>
+      <c r="C29" s="207" t="s">
+        <v>666</v>
+      </c>
+      <c r="D29" s="165" t="s">
         <v>512</v>
       </c>
-      <c r="C29" s="123" t="s">
+      <c r="E29" s="123" t="s">
         <v>472</v>
       </c>
-      <c r="D29" s="81" t="s">
+      <c r="F29" s="81" t="s">
         <v>430</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="G29" s="39" t="s">
         <v>391</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I29" t="s">
+      <c r="K29" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="L29" t="s">
+      <c r="N29" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="M29" t="s">
+      <c r="O29" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="N29" t="s">
+      <c r="P29" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="O29" t="s">
+      <c r="Q29" s="0" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3887,46 +4490,52 @@
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="166" t="s">
+      <c r="B30" s="256" t="s">
+        <v>710</v>
+      </c>
+      <c r="C30" s="208" t="s">
+        <v>667</v>
+      </c>
+      <c r="D30" s="166" t="s">
         <v>513</v>
       </c>
-      <c r="C30" s="124" t="s">
+      <c r="E30" s="124" t="s">
         <v>473</v>
       </c>
-      <c r="D30" s="82" t="s">
+      <c r="F30" s="82" t="s">
         <v>431</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="G30" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="G30" t="s">
+      <c r="I30" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="I30" t="s">
+      <c r="K30" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="K30" t="s">
+      <c r="M30" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="L30" t="s">
+      <c r="N30" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="M30" t="s">
+      <c r="O30" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="O30" t="s">
+      <c r="Q30" s="0" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3934,46 +4543,52 @@
       <c r="A31" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="167" t="s">
+      <c r="B31" s="257" t="s">
+        <v>711</v>
+      </c>
+      <c r="C31" s="209" t="s">
+        <v>668</v>
+      </c>
+      <c r="D31" s="167" t="s">
         <v>514</v>
       </c>
-      <c r="C31" s="125" t="s">
+      <c r="E31" s="125" t="s">
         <v>474</v>
       </c>
-      <c r="D31" s="83" t="s">
+      <c r="F31" s="83" t="s">
         <v>432</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="G31" s="41" t="s">
         <v>393</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="I31" t="s">
+      <c r="K31" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="L31" t="s">
+      <c r="N31" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="M31" t="s">
+      <c r="O31" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="O31" t="s">
+      <c r="Q31" s="0" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3981,46 +4596,52 @@
       <c r="A32" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="168" t="s">
+      <c r="B32" s="258" t="s">
+        <v>712</v>
+      </c>
+      <c r="C32" s="210" t="s">
+        <v>669</v>
+      </c>
+      <c r="D32" s="168" t="s">
         <v>515</v>
       </c>
-      <c r="C32" s="126" t="s">
+      <c r="E32" s="126" t="s">
         <v>475</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="F32" s="84" t="s">
         <v>433</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="G32" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="I32" t="s">
+      <c r="K32" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="L32" t="s">
+      <c r="N32" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="M32" t="s">
+      <c r="O32" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="N32" t="s">
+      <c r="P32" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="O32" t="s">
+      <c r="Q32" s="0" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4028,46 +4649,52 @@
       <c r="A33" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="169" t="s">
+      <c r="B33" s="259" t="s">
+        <v>713</v>
+      </c>
+      <c r="C33" s="211" t="s">
+        <v>670</v>
+      </c>
+      <c r="D33" s="169" t="s">
         <v>516</v>
       </c>
-      <c r="C33" s="127" t="s">
+      <c r="E33" s="127" t="s">
         <v>476</v>
       </c>
-      <c r="D33" s="85" t="s">
+      <c r="F33" s="85" t="s">
         <v>434</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="G33" s="43" t="s">
         <v>395</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="I33" t="s">
+      <c r="K33" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="K33" t="s">
+      <c r="M33" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="L33" t="s">
+      <c r="N33" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="M33" t="s">
+      <c r="O33" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="N33" t="s">
+      <c r="P33" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="O33" t="s">
+      <c r="Q33" s="0" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4075,46 +4702,52 @@
       <c r="A34" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="170" t="s">
+      <c r="B34" s="260" t="s">
+        <v>714</v>
+      </c>
+      <c r="C34" s="212" t="s">
+        <v>671</v>
+      </c>
+      <c r="D34" s="170" t="s">
         <v>517</v>
       </c>
-      <c r="C34" s="128" t="s">
+      <c r="E34" s="128" t="s">
         <v>477</v>
       </c>
-      <c r="D34" s="86" t="s">
+      <c r="F34" s="86" t="s">
         <v>435</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="G34" s="44" t="s">
         <v>396</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="H34" t="s">
+      <c r="J34" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="I34" t="s">
+      <c r="K34" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K34" t="s">
+      <c r="M34" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="L34" t="s">
+      <c r="N34" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="M34" t="s">
+      <c r="O34" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="N34" t="s">
+      <c r="P34" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="O34" t="s">
+      <c r="Q34" s="0" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4122,46 +4755,52 @@
       <c r="A35" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="261" t="s">
+        <v>715</v>
+      </c>
+      <c r="C35" s="213" t="s">
+        <v>610</v>
+      </c>
+      <c r="D35" s="171" t="s">
         <v>518</v>
       </c>
-      <c r="C35" s="129" t="s">
+      <c r="E35" s="129" t="s">
         <v>292</v>
       </c>
-      <c r="D35" s="87" t="s">
+      <c r="F35" s="87" t="s">
         <v>436</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="G35" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="I35" t="s">
+      <c r="K35" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="K35" t="s">
+      <c r="M35" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="L35" t="s">
+      <c r="N35" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="M35" t="s">
+      <c r="O35" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="N35" t="s">
+      <c r="P35" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="O35" t="s">
+      <c r="Q35" s="0" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4169,46 +4808,52 @@
       <c r="A36" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="172" t="s">
+      <c r="B36" s="262" t="s">
+        <v>716</v>
+      </c>
+      <c r="C36" s="214" t="s">
+        <v>672</v>
+      </c>
+      <c r="D36" s="172" t="s">
         <v>519</v>
       </c>
-      <c r="C36" s="130" t="s">
+      <c r="E36" s="130" t="s">
         <v>478</v>
       </c>
-      <c r="D36" s="88" t="s">
+      <c r="F36" s="88" t="s">
         <v>437</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="G36" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="H36" t="s">
+      <c r="J36" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="I36" t="s">
+      <c r="K36" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="K36" t="s">
+      <c r="M36" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="L36" t="s">
+      <c r="N36" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="M36" t="s">
+      <c r="O36" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="N36" t="s">
+      <c r="P36" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="O36" t="s">
+      <c r="Q36" s="0" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4216,46 +4861,52 @@
       <c r="A37" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="173" t="s">
+      <c r="B37" s="263" t="s">
+        <v>717</v>
+      </c>
+      <c r="C37" s="215" t="s">
+        <v>673</v>
+      </c>
+      <c r="D37" s="173" t="s">
         <v>520</v>
       </c>
-      <c r="C37" s="131" t="s">
+      <c r="E37" s="131" t="s">
         <v>479</v>
       </c>
-      <c r="D37" s="89" t="s">
+      <c r="F37" s="89" t="s">
         <v>438</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="G37" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="H37" t="s">
+      <c r="J37" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="I37" t="s">
+      <c r="K37" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K37" t="s">
+      <c r="M37" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="L37" t="s">
+      <c r="N37" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="M37" t="s">
+      <c r="O37" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="N37" t="s">
+      <c r="P37" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="O37" t="s">
+      <c r="Q37" s="0" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4263,46 +4914,52 @@
       <c r="A38" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="264" t="s">
+        <v>718</v>
+      </c>
+      <c r="C38" s="216" t="s">
+        <v>674</v>
+      </c>
+      <c r="D38" s="174" t="s">
         <v>521</v>
       </c>
-      <c r="C38" s="132" t="s">
+      <c r="E38" s="132" t="s">
         <v>480</v>
       </c>
-      <c r="D38" s="90" t="s">
+      <c r="F38" s="90" t="s">
         <v>439</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="G38" s="48" t="s">
         <v>399</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="H38" t="s">
+      <c r="J38" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="M38" t="s">
+      <c r="O38" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="O38" t="s">
+      <c r="Q38" s="0" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4310,46 +4967,52 @@
       <c r="A39" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="175" t="s">
+      <c r="B39" s="265" t="s">
+        <v>719</v>
+      </c>
+      <c r="C39" s="217" t="s">
+        <v>675</v>
+      </c>
+      <c r="D39" s="175" t="s">
         <v>522</v>
       </c>
-      <c r="C39" s="133" t="s">
+      <c r="E39" s="133" t="s">
         <v>481</v>
       </c>
-      <c r="D39" s="91" t="s">
+      <c r="F39" s="91" t="s">
         <v>440</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="G39" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="G39" t="s">
+      <c r="I39" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J39" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L39" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="K39" t="s">
+      <c r="M39" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="L39" t="s">
+      <c r="N39" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="M39" t="s">
+      <c r="O39" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="N39" t="s">
+      <c r="P39" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="O39" t="s">
+      <c r="Q39" s="0" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4357,46 +5020,52 @@
       <c r="A40" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="176" t="s">
+      <c r="B40" s="266" t="s">
+        <v>720</v>
+      </c>
+      <c r="C40" s="218" t="s">
+        <v>305</v>
+      </c>
+      <c r="D40" s="176" t="s">
         <v>523</v>
       </c>
-      <c r="C40" s="134" t="s">
+      <c r="E40" s="134" t="s">
         <v>482</v>
       </c>
-      <c r="D40" s="92" t="s">
+      <c r="F40" s="92" t="s">
         <v>441</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="G40" s="50" t="s">
         <v>401</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="G40" t="s">
+      <c r="I40" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="H40" t="s">
+      <c r="J40" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="K40" t="s">
+      <c r="M40" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="L40" t="s">
+      <c r="N40" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="M40" t="s">
+      <c r="O40" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="N40" t="s">
+      <c r="P40" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="O40" t="s">
+      <c r="Q40" s="0" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4404,46 +5073,52 @@
       <c r="A41" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="177" t="s">
+      <c r="B41" s="267" t="s">
+        <v>721</v>
+      </c>
+      <c r="C41" s="219" t="s">
+        <v>676</v>
+      </c>
+      <c r="D41" s="177" t="s">
         <v>524</v>
       </c>
-      <c r="C41" s="135" t="s">
+      <c r="E41" s="135" t="s">
         <v>483</v>
       </c>
-      <c r="D41" s="93" t="s">
+      <c r="F41" s="93" t="s">
         <v>442</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="G41" s="51" t="s">
         <v>402</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="K41" t="s">
+      <c r="M41" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="L41" t="s">
+      <c r="N41" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="M41" t="s">
+      <c r="O41" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="N41" t="s">
+      <c r="P41" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="O41" t="s">
+      <c r="Q41" s="0" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4451,46 +5126,52 @@
       <c r="A42" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="178" t="s">
+      <c r="B42" s="268" t="s">
+        <v>722</v>
+      </c>
+      <c r="C42" s="220" t="s">
+        <v>677</v>
+      </c>
+      <c r="D42" s="178" t="s">
         <v>525</v>
       </c>
-      <c r="C42" s="136" t="s">
+      <c r="E42" s="136" t="s">
         <v>484</v>
       </c>
-      <c r="D42" s="94" t="s">
+      <c r="F42" s="94" t="s">
         <v>443</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="G42" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="G42" t="s">
+      <c r="I42" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="H42" t="s">
+      <c r="J42" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="I42" t="s">
+      <c r="K42" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="K42" t="s">
+      <c r="M42" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="L42" t="s">
+      <c r="N42" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="M42" t="s">
+      <c r="O42" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="N42" t="s">
+      <c r="P42" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="O42" t="s">
+      <c r="Q42" s="0" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4498,103 +5179,106 @@
       <c r="A43" t="s">
         <v>204</v>
       </c>
-      <c r="B43" s="179" t="s">
+      <c r="B43" s="269" t="s">
+        <v>723</v>
+      </c>
+      <c r="C43" s="221" t="s">
+        <v>678</v>
+      </c>
+      <c r="D43" s="179" t="s">
         <v>526</v>
       </c>
-      <c r="C43" s="137" t="s">
+      <c r="E43" s="137" t="s">
         <v>485</v>
       </c>
-      <c r="D43" s="95" t="s">
+      <c r="F43" s="95" t="s">
         <v>444</v>
       </c>
-      <c r="E43" s="53" t="s">
+      <c r="G43" s="53" t="s">
         <v>404</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="G43" t="s">
+      <c r="I43" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="H43" t="s">
+      <c r="J43" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="I43" t="s">
+      <c r="K43" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="K43" t="s">
+      <c r="M43" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="L43" t="s">
+      <c r="N43" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="M43" t="s">
+      <c r="O43" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="N43" t="s">
+      <c r="P43" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="O43" t="s">
+      <c r="Q43" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="P43" t="s">
-        <v>199</v>
-      </c>
     </row>
-    <row r="44" spans="1:26" s="179" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="44" s="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="179" t="s">
         <v>545</v>
       </c>
-      <c r="B44" s="179" t="s">
+      <c r="B44" s="270" t="s">
+        <v>724</v>
+      </c>
+      <c r="C44" s="222" t="s">
+        <v>679</v>
+      </c>
+      <c r="D44" s="179" t="s">
         <v>544</v>
       </c>
-      <c r="C44" s="179" t="s">
+      <c r="E44" s="179" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="179" t="s">
+      <c r="F44" s="179" t="s">
         <v>543</v>
       </c>
-      <c r="E44" s="179" t="s">
+      <c r="G44" s="179" t="s">
         <v>542</v>
       </c>
-      <c r="F44" s="179" t="s">
+      <c r="H44" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="G44" s="179" t="s">
+      <c r="I44" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="H44" s="179" t="s">
+      <c r="J44" s="179" t="s">
         <v>540</v>
       </c>
-      <c r="I44" s="179" t="s">
+      <c r="K44" s="179" t="s">
         <v>539</v>
       </c>
-      <c r="J44" s="179" t="s">
+      <c r="L44" s="179" t="s">
         <v>539</v>
       </c>
-      <c r="K44" s="179" t="s">
+      <c r="M44" s="179" t="s">
         <v>538</v>
       </c>
-      <c r="L44" s="179" t="s">
+      <c r="N44" s="179" t="s">
         <v>537</v>
       </c>
-      <c r="M44" s="179" t="s">
+      <c r="O44" s="179" t="s">
         <v>536</v>
       </c>
-      <c r="N44" s="179" t="s">
+      <c r="P44" s="179" t="s">
         <v>535</v>
       </c>
-      <c r="O44" s="179" t="s">
+      <c r="Q44" s="179" t="s">
         <v>534</v>
-      </c>
-      <c r="P44" s="179" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q44" s="179" t="s">
-        <v>533</v>
       </c>
       <c r="R44" s="179" t="s">
         <v>532</v>
@@ -4624,57 +5308,57 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="179" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="45" s="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="179" t="s">
         <v>562</v>
       </c>
-      <c r="B45" s="179" t="s">
+      <c r="B45" s="271" t="s">
+        <v>725</v>
+      </c>
+      <c r="C45" s="223" t="s">
+        <v>680</v>
+      </c>
+      <c r="D45" s="179" t="s">
         <v>561</v>
       </c>
-      <c r="C45" s="179" t="s">
+      <c r="E45" s="179" t="s">
         <v>560</v>
       </c>
-      <c r="D45" s="179" t="s">
+      <c r="F45" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="E45" s="179" t="s">
+      <c r="G45" s="179" t="s">
         <v>549</v>
       </c>
-      <c r="F45" s="179" t="s">
+      <c r="H45" s="179" t="s">
         <v>558</v>
       </c>
-      <c r="G45" s="179" t="s">
+      <c r="I45" s="179" t="s">
         <v>558</v>
       </c>
-      <c r="H45" s="179" t="s">
+      <c r="J45" s="179" t="s">
         <v>552</v>
       </c>
-      <c r="I45" s="179" t="s">
+      <c r="K45" s="179" t="s">
         <v>553</v>
       </c>
-      <c r="J45" s="179" t="s">
+      <c r="L45" s="179" t="s">
         <v>553</v>
       </c>
-      <c r="K45" s="179" t="s">
+      <c r="M45" s="179" t="s">
         <v>557</v>
       </c>
-      <c r="L45" s="179" t="s">
+      <c r="N45" s="179" t="s">
         <v>556</v>
       </c>
-      <c r="M45" s="179" t="s">
+      <c r="O45" s="179" t="s">
         <v>555</v>
       </c>
-      <c r="N45" s="179" t="s">
+      <c r="P45" s="179" t="s">
         <v>554</v>
       </c>
-      <c r="O45" s="179" t="s">
+      <c r="Q45" s="179" t="s">
         <v>553</v>
-      </c>
-      <c r="P45" s="179" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q45" s="179" t="s">
-        <v>551</v>
       </c>
       <c r="R45" s="179" t="s">
         <v>552</v>
@@ -4704,57 +5388,57 @@
         <v>546</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="179" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="46" s="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="179" t="s">
         <v>582</v>
       </c>
-      <c r="B46" s="179" t="s">
+      <c r="B46" s="272" t="s">
+        <v>726</v>
+      </c>
+      <c r="C46" s="224" t="s">
+        <v>681</v>
+      </c>
+      <c r="D46" s="179" t="s">
         <v>581</v>
       </c>
-      <c r="C46" s="179" t="s">
+      <c r="E46" s="179" t="s">
         <v>580</v>
       </c>
-      <c r="D46" s="179" t="s">
+      <c r="F46" s="179" t="s">
         <v>579</v>
       </c>
-      <c r="E46" s="179" t="s">
+      <c r="G46" s="179" t="s">
         <v>578</v>
       </c>
-      <c r="F46" s="179" t="s">
+      <c r="H46" s="179" t="s">
         <v>577</v>
       </c>
-      <c r="G46" s="179" t="s">
+      <c r="I46" s="179" t="s">
         <v>577</v>
       </c>
-      <c r="H46" s="179" t="s">
+      <c r="J46" s="179" t="s">
         <v>576</v>
       </c>
-      <c r="I46" s="179" t="s">
+      <c r="K46" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="J46" s="179" t="s">
+      <c r="L46" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="K46" s="179" t="s">
+      <c r="M46" s="179" t="s">
         <v>574</v>
       </c>
-      <c r="L46" s="179" t="s">
+      <c r="N46" s="179" t="s">
         <v>573</v>
       </c>
-      <c r="M46" s="179" t="s">
+      <c r="O46" s="179" t="s">
         <v>572</v>
       </c>
-      <c r="N46" s="179" t="s">
+      <c r="P46" s="179" t="s">
         <v>571</v>
       </c>
-      <c r="O46" s="179" t="s">
+      <c r="Q46" s="179" t="s">
         <v>570</v>
-      </c>
-      <c r="P46" s="179" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q46" s="179" t="s">
-        <v>569</v>
       </c>
       <c r="R46" s="179" t="s">
         <v>568</v>
@@ -4784,57 +5468,57 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="179" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="47" s="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="179" t="s">
         <v>600</v>
       </c>
-      <c r="B47" s="179" t="s">
+      <c r="B47" s="273" t="s">
+        <v>727</v>
+      </c>
+      <c r="C47" s="225" t="s">
+        <v>682</v>
+      </c>
+      <c r="D47" s="179" t="s">
         <v>599</v>
       </c>
-      <c r="C47" s="179" t="s">
+      <c r="E47" s="179" t="s">
         <v>598</v>
-      </c>
-      <c r="D47" s="179" t="s">
-        <v>596</v>
-      </c>
-      <c r="E47" s="179" t="s">
-        <v>597</v>
       </c>
       <c r="F47" s="179" t="s">
         <v>596</v>
       </c>
       <c r="G47" s="179" t="s">
+        <v>597</v>
+      </c>
+      <c r="H47" s="179" t="s">
         <v>596</v>
       </c>
-      <c r="H47" s="179" t="s">
+      <c r="I47" s="179" t="s">
+        <v>596</v>
+      </c>
+      <c r="J47" s="179" t="s">
         <v>595</v>
       </c>
-      <c r="I47" s="179" t="s">
+      <c r="K47" s="179" t="s">
         <v>594</v>
       </c>
-      <c r="J47" s="179" t="s">
+      <c r="L47" s="179" t="s">
         <v>594</v>
       </c>
-      <c r="K47" s="179" t="s">
+      <c r="M47" s="179" t="s">
         <v>593</v>
       </c>
-      <c r="L47" s="179" t="s">
+      <c r="N47" s="179" t="s">
         <v>592</v>
       </c>
-      <c r="M47" s="179" t="s">
+      <c r="O47" s="179" t="s">
         <v>591</v>
       </c>
-      <c r="N47" s="179" t="s">
+      <c r="P47" s="179" t="s">
         <v>590</v>
       </c>
-      <c r="O47" s="179" t="s">
+      <c r="Q47" s="179" t="s">
         <v>589</v>
-      </c>
-      <c r="P47" s="179" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q47" s="179" t="s">
-        <v>588</v>
       </c>
       <c r="R47" s="179" t="s">
         <v>587</v>
@@ -4864,57 +5548,57 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="179" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="48" s="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="179" t="s">
         <v>638</v>
       </c>
-      <c r="B48" s="179" t="s">
+      <c r="B48" s="274" t="s">
+        <v>728</v>
+      </c>
+      <c r="C48" s="226" t="s">
+        <v>683</v>
+      </c>
+      <c r="D48" s="179" t="s">
         <v>637</v>
       </c>
-      <c r="C48" s="179" t="s">
+      <c r="E48" s="179" t="s">
         <v>610</v>
       </c>
-      <c r="D48" s="179" t="s">
+      <c r="F48" s="179" t="s">
         <v>636</v>
       </c>
-      <c r="E48" s="179" t="s">
+      <c r="G48" s="179" t="s">
         <v>635</v>
       </c>
-      <c r="F48" s="179" t="s">
+      <c r="H48" s="179" t="s">
         <v>634</v>
       </c>
-      <c r="G48" s="179" t="s">
+      <c r="I48" s="179" t="s">
         <v>634</v>
       </c>
-      <c r="H48" s="179" t="s">
+      <c r="J48" s="179" t="s">
         <v>633</v>
       </c>
-      <c r="I48" s="179" t="s">
+      <c r="K48" s="179" t="s">
         <v>632</v>
       </c>
-      <c r="J48" s="179" t="s">
+      <c r="L48" s="179" t="s">
         <v>632</v>
       </c>
-      <c r="K48" s="179" t="s">
+      <c r="M48" s="179" t="s">
         <v>631</v>
       </c>
-      <c r="L48" s="179" t="s">
+      <c r="N48" s="179" t="s">
         <v>630</v>
       </c>
-      <c r="M48" s="179" t="s">
+      <c r="O48" s="179" t="s">
         <v>629</v>
       </c>
-      <c r="N48" s="179" t="s">
+      <c r="P48" s="179" t="s">
         <v>628</v>
       </c>
-      <c r="O48" s="179" t="s">
+      <c r="Q48" s="179" t="s">
         <v>627</v>
-      </c>
-      <c r="P48" s="179" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q48" s="179" t="s">
-        <v>626</v>
       </c>
       <c r="R48" s="179" t="s">
         <v>625</v>
@@ -4944,57 +5628,57 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="179" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="49" s="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="179" t="s">
         <v>619</v>
       </c>
-      <c r="B49" s="179" t="s">
+      <c r="B49" s="275" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="227" t="s">
+        <v>684</v>
+      </c>
+      <c r="D49" s="179" t="s">
         <v>618</v>
       </c>
-      <c r="C49" s="179" t="s">
+      <c r="E49" s="179" t="s">
         <v>617</v>
       </c>
-      <c r="D49" s="179" t="s">
+      <c r="F49" s="179" t="s">
         <v>616</v>
       </c>
-      <c r="E49" s="179" t="s">
+      <c r="G49" s="179" t="s">
         <v>615</v>
       </c>
-      <c r="F49" s="179" t="s">
+      <c r="H49" s="179" t="s">
         <v>614</v>
       </c>
-      <c r="G49" s="179" t="s">
+      <c r="I49" s="179" t="s">
         <v>614</v>
       </c>
-      <c r="H49" s="179" t="s">
+      <c r="J49" s="179" t="s">
         <v>613</v>
       </c>
-      <c r="I49" s="179" t="s">
+      <c r="K49" s="179" t="s">
         <v>612</v>
       </c>
-      <c r="J49" s="179" t="s">
+      <c r="L49" s="179" t="s">
         <v>612</v>
       </c>
-      <c r="K49" s="179" t="s">
+      <c r="M49" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="L49" s="179" t="s">
+      <c r="N49" s="179" t="s">
         <v>611</v>
       </c>
-      <c r="M49" s="179" t="s">
+      <c r="O49" s="179" t="s">
         <v>610</v>
       </c>
-      <c r="N49" s="179" t="s">
+      <c r="P49" s="179" t="s">
         <v>609</v>
       </c>
-      <c r="O49" s="179" t="s">
+      <c r="Q49" s="179" t="s">
         <v>608</v>
-      </c>
-      <c r="P49" s="179" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q49" s="179" t="s">
-        <v>607</v>
       </c>
       <c r="R49" s="179" t="s">
         <v>606</v>
@@ -5025,6 +5709,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>